--- a/biology/Zoologie/Cinclode_gris/Cinclode_gris.xlsx
+++ b/biology/Zoologie/Cinclode_gris/Cinclode_gris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cinclodes comechingonus
 Le Cinclode gris (Cinclodes comechingonus) est une espèce de passereaux de la famille des Furnariidae.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cinclodes comechingonus a été décrite en 1944 par les ornithologues argentins Ángel R. Zotta (d) et Héctor S. Gavio (d)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cinclodes comechingonus a été décrite en 1944 par les ornithologues argentins Ángel R. Zotta (d) et Héctor S. Gavio (d).
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cinclode gris est endémique d'Argentine.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il habite les zones de broussailles tropicales et subtropicales de haute montagne.
 </t>
@@ -605,9 +623,11 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Cinclode gris est presque exclusivement insectivore (coléoptères, hémiptères, papillons, etc.) mais se nourrit également des graines et de mollusques[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cinclode gris est presque exclusivement insectivore (coléoptères, hémiptères, papillons, etc.) mais se nourrit également des graines et de mollusques.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(es) Angel R. Zotta et Hector S. Gavio, « Una nueva especie del género Cinclodes », El Hornero, Buenos Aires, UBA et inconnu, vol. 8, no 3,‎ 1944, p. 370-378 (ISSN 0073-3407 et 1850-4884, OCLC 1586333, lire en ligne)</t>
         </is>
